--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -1,43 +1,473 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="19890" windowHeight="7080" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="RegisterPage" sheetId="3" r:id="rId3"/>
+    <sheet name="JewelryPage" sheetId="4" r:id="rId4"/>
+    <sheet name="sheet" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>parvathyk285@gmail.com</t>
+  </si>
+  <si>
+    <t>Parvathy#1998</t>
+  </si>
+  <si>
+    <t>parvathk1998@gmail.com</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>confirm password</t>
+  </si>
+  <si>
+    <t>Femail</t>
+  </si>
+  <si>
+    <t>parvathy</t>
+  </si>
+  <si>
+    <t>krishna</t>
+  </si>
+  <si>
+    <t>parvathy123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MenuOption</t>
+  </si>
+  <si>
+    <t>SortOption</t>
+  </si>
+  <si>
+    <t>product name</t>
+  </si>
+  <si>
+    <t>JEWELRY</t>
+  </si>
+  <si>
+    <t>Postion</t>
+  </si>
+  <si>
+    <t>Black &amp; White Diamond Heart</t>
+  </si>
+  <si>
+    <t>Name: A to Z</t>
+  </si>
+  <si>
+    <t>Name: Z to A</t>
+  </si>
+  <si>
+    <t>Price: Low to High</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Courier New"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,31 +475,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -111,12 +819,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,12 +854,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -320,23 +1028,217 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
+    <col min="2" max="1025" width="8.66666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="21.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="parvathyk285@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="parvathk1998@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="35.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7080" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20130" windowHeight="7665" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -125,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -138,14 +146,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +176,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,35 +237,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -288,91 +288,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,85 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +473,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,15 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -535,30 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,138 +576,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,7 +1173,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
